--- a/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
+++ b/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4EAD3894000D92E7CA2BCCF8BEF5EC2E7552C0C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5C67298-D17A-4990-8713-D286B690F25B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4260" yWindow="2895" windowWidth="28740" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-2_vs_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +167,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -239,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -273,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,14 +464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -492,28 +513,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>42359</v>
+        <v>43526</v>
       </c>
       <c r="D2">
-        <v>102.1</v>
+        <v>107.7</v>
       </c>
       <c r="E2">
         <v>20958</v>
       </c>
       <c r="F2">
-        <v>60.8</v>
+        <v>65.2</v>
       </c>
       <c r="G2">
         <v>26340</v>
       </c>
       <c r="H2">
-        <v>23.7</v>
+        <v>27.1</v>
       </c>
       <c r="I2">
         <v>34252</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -521,28 +542,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>70685</v>
+        <v>71277</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>58910</v>
       </c>
       <c r="F3">
-        <v>26.1</v>
+        <v>27.2</v>
       </c>
       <c r="G3">
         <v>56036</v>
       </c>
       <c r="H3">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
         <v>66875</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -550,28 +571,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>60918</v>
+        <v>59865</v>
       </c>
       <c r="D4">
-        <v>95.40000000000001</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>31173</v>
       </c>
       <c r="F4">
-        <v>27.8</v>
+        <v>25.6</v>
       </c>
       <c r="G4">
         <v>47651</v>
       </c>
       <c r="H4">
-        <v>16.4</v>
+        <v>14.4</v>
       </c>
       <c r="I4">
         <v>52320</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -579,28 +600,28 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>64722</v>
+        <v>65754</v>
       </c>
       <c r="D5">
-        <v>39.1</v>
+        <v>41.3</v>
       </c>
       <c r="E5">
         <v>46540</v>
       </c>
       <c r="F5">
-        <v>8.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G5">
         <v>59676</v>
       </c>
       <c r="H5">
-        <v>-27.9</v>
+        <v>-26.8</v>
       </c>
       <c r="I5">
         <v>89790</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -608,28 +629,28 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>80021</v>
+        <v>81572</v>
       </c>
       <c r="D6">
-        <v>26.3</v>
+        <v>28.8</v>
       </c>
       <c r="E6">
         <v>63342</v>
       </c>
       <c r="F6">
-        <v>-13.7</v>
+        <v>-12</v>
       </c>
       <c r="G6">
         <v>92742</v>
       </c>
       <c r="H6">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
       <c r="I6">
         <v>70432</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -637,28 +658,28 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>54055</v>
+        <v>54004</v>
       </c>
       <c r="D7">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="E7">
         <v>35147</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G7">
         <v>45407</v>
       </c>
       <c r="H7">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="I7">
         <v>47079</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -666,28 +687,28 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>65340</v>
+        <v>65484</v>
       </c>
       <c r="D8">
-        <v>45.1</v>
+        <v>45.4</v>
       </c>
       <c r="E8">
         <v>45027</v>
       </c>
       <c r="F8">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G8">
         <v>62919</v>
       </c>
       <c r="H8">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>57444</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -695,28 +716,28 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>16598</v>
+        <v>16425</v>
       </c>
       <c r="D9">
-        <v>-4.9</v>
+        <v>-5.9</v>
       </c>
       <c r="E9">
         <v>17451</v>
       </c>
       <c r="F9">
-        <v>-41.6</v>
+        <v>-42.2</v>
       </c>
       <c r="G9">
         <v>28406</v>
       </c>
       <c r="H9">
-        <v>-23.1</v>
+        <v>-23.9</v>
       </c>
       <c r="I9">
         <v>21578</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -724,28 +745,28 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>41393</v>
+        <v>40257</v>
       </c>
       <c r="D10">
-        <v>-0.9</v>
+        <v>-3.6</v>
       </c>
       <c r="E10">
         <v>41751</v>
       </c>
       <c r="F10">
-        <v>-18.3</v>
+        <v>-20.5</v>
       </c>
       <c r="G10">
         <v>50654</v>
       </c>
       <c r="H10">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
         <v>38856</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -774,7 +795,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -782,28 +803,28 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>248049</v>
+        <v>252311</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>25.1</v>
       </c>
       <c r="E12">
         <v>201701</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="G12">
         <v>236133</v>
       </c>
       <c r="H12">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
         <v>245202</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -811,28 +832,28 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>21352</v>
+        <v>21408</v>
       </c>
       <c r="D13">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="E13">
         <v>18709</v>
       </c>
       <c r="F13">
-        <v>4.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G13">
         <v>20508</v>
       </c>
       <c r="H13">
-        <v>-16.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="I13">
         <v>25660</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -840,28 +861,28 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>98482</v>
+        <v>98983</v>
       </c>
       <c r="D14">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E14">
         <v>99978</v>
       </c>
       <c r="F14">
-        <v>-21.5</v>
+        <v>-21.1</v>
       </c>
       <c r="G14">
         <v>125422</v>
       </c>
       <c r="H14">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="I14">
         <v>93110</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -869,22 +890,22 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>28771</v>
+        <v>29224</v>
       </c>
       <c r="D15">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="E15">
         <v>27377</v>
       </c>
       <c r="F15">
-        <v>-14.1</v>
+        <v>-12.7</v>
       </c>
       <c r="G15">
         <v>33484</v>
       </c>
       <c r="H15">
-        <v>-28.2</v>
+        <v>-27.1</v>
       </c>
       <c r="I15">
         <v>40082</v>

--- a/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
+++ b/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4EAD3894000D92E7CA2BCCF8BEF5EC2E7552C0C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5C67298-D17A-4990-8713-D286B690F25B}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2895" windowWidth="28740" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="T-2_vs_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,21 +161,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -253,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,10 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,19 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -513,28 +492,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>43526</v>
+        <v>45626</v>
       </c>
       <c r="D2">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>20958</v>
+        <v>21937</v>
       </c>
       <c r="F2">
-        <v>65.2</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>26340</v>
+        <v>27481</v>
       </c>
       <c r="H2">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="I2">
-        <v>34252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -542,28 +521,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>71277</v>
+        <v>75114</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="E3">
-        <v>58910</v>
+        <v>62120</v>
       </c>
       <c r="F3">
         <v>27.2</v>
       </c>
       <c r="G3">
-        <v>56036</v>
+        <v>59073</v>
       </c>
       <c r="H3">
         <v>6.6</v>
       </c>
       <c r="I3">
-        <v>66875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -571,28 +550,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>59865</v>
+        <v>62788</v>
       </c>
       <c r="D4">
         <v>92</v>
       </c>
       <c r="E4">
-        <v>31173</v>
+        <v>32695</v>
       </c>
       <c r="F4">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="G4">
-        <v>47651</v>
+        <v>49958</v>
       </c>
       <c r="H4">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="I4">
-        <v>52320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -600,28 +579,28 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>65754</v>
+        <v>69589</v>
       </c>
       <c r="D5">
         <v>41.3</v>
       </c>
       <c r="E5">
-        <v>46540</v>
+        <v>49254</v>
       </c>
       <c r="F5">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G5">
-        <v>59676</v>
+        <v>63157</v>
       </c>
       <c r="H5">
         <v>-26.8</v>
       </c>
       <c r="I5">
-        <v>89790</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -629,28 +608,28 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>81572</v>
+        <v>83582</v>
       </c>
       <c r="D6">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>63342</v>
+        <v>64787</v>
       </c>
       <c r="F6">
-        <v>-12</v>
+        <v>-12.3</v>
       </c>
       <c r="G6">
-        <v>92742</v>
+        <v>95296</v>
       </c>
       <c r="H6">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="I6">
-        <v>70432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -658,28 +637,28 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>54004</v>
+        <v>53451</v>
       </c>
       <c r="D7">
         <v>53.7</v>
       </c>
       <c r="E7">
-        <v>35147</v>
+        <v>34785</v>
       </c>
       <c r="F7">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="G7">
-        <v>45407</v>
+        <v>44941</v>
       </c>
       <c r="H7">
         <v>14.7</v>
       </c>
       <c r="I7">
-        <v>47079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -687,28 +666,28 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>65484</v>
+        <v>64756</v>
       </c>
       <c r="D8">
         <v>45.4</v>
       </c>
       <c r="E8">
-        <v>45027</v>
+        <v>44527</v>
       </c>
       <c r="F8">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G8">
-        <v>62919</v>
+        <v>62220</v>
       </c>
       <c r="H8">
         <v>14</v>
       </c>
       <c r="I8">
-        <v>57444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -716,28 +695,28 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>16425</v>
+        <v>16966</v>
       </c>
       <c r="D9">
-        <v>-5.9</v>
+        <v>-5.3</v>
       </c>
       <c r="E9">
-        <v>17451</v>
+        <v>17912</v>
       </c>
       <c r="F9">
-        <v>-42.2</v>
+        <v>-42</v>
       </c>
       <c r="G9">
-        <v>28406</v>
+        <v>29245</v>
       </c>
       <c r="H9">
-        <v>-23.9</v>
+        <v>-23.1</v>
       </c>
       <c r="I9">
-        <v>21578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -766,7 +745,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -795,7 +774,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -803,28 +782,28 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>252311</v>
+        <v>261617</v>
       </c>
       <c r="D12">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="E12">
-        <v>201701</v>
+        <v>209650</v>
       </c>
       <c r="F12">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="G12">
-        <v>236133</v>
+        <v>245820</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
-        <v>245202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>255027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -832,28 +811,28 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>21408</v>
+        <v>21134</v>
       </c>
       <c r="D13">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E13">
-        <v>18709</v>
+        <v>18461</v>
       </c>
       <c r="F13">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G13">
-        <v>20508</v>
+        <v>20235</v>
       </c>
       <c r="H13">
-        <v>-16.600000000000001</v>
+        <v>-16.6</v>
       </c>
       <c r="I13">
-        <v>25660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -882,7 +861,7 @@
         <v>93110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>11</v>
       </c>

--- a/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
+++ b/data/OI_T-2_vs_type_agg_20250828_v1.xlsx
@@ -782,25 +782,25 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>261617</v>
+        <v>119156</v>
       </c>
       <c r="D12">
-        <v>24.8</v>
+        <v>35.6</v>
       </c>
       <c r="E12">
-        <v>209650</v>
+        <v>87855</v>
       </c>
       <c r="F12">
-        <v>6.4</v>
+        <v>21.7</v>
       </c>
       <c r="G12">
-        <v>245820</v>
+        <v>97874</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>14.1</v>
       </c>
       <c r="I12">
-        <v>255027</v>
+        <v>104444</v>
       </c>
     </row>
     <row r="13" spans="1:9">
